--- a/biology/Zoologie/Hvalba/Hvalba.xlsx
+++ b/biology/Zoologie/Hvalba/Hvalba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hvalba est une commune et l'une des plus grandes villes des îles Féroé, elle se trouve sur l'île de Suðuroy.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Du charbon est toujours extrait des mines de la ville.
 C'est une station baleinière très active.
@@ -546,7 +560,9 @@
           <t>Transport</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Deux tunnels connectent Hvalba à ses villages voisins. Le tunnel en direction sud (1 450 m) conduit à Trongisvágur/Tvøroyri, il a été réalisé en 1963 ; c'est le premier tunnel de route construit dans les îles Féroé. La direction du Nord (1 500 m) mène à Sandvík, village plus au nord ; elle a été faite en 1969.
 </t>
